--- a/ol-handback/OpenLocalizationOrg/coreapi/master/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationOrg/coreapi/master/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>File Name</t>
   </si>
@@ -49,7 +49,7 @@
     <t>Ready for handoff</t>
   </si>
   <si>
-    <t>2016-07-06 02:10:23</t>
+    <t>2016-07-06 02:21:42</t>
   </si>
   <si>
     <t>Microsoft.CSharp.RuntimeBinder.CSharpArgumentInfo.yml</t>
@@ -112,10 +112,10 @@
     <t>Error Detail</t>
   </si>
   <si>
-    <t>Microsoft.CSharp.RuntimeBinder.Binder.0a71a9e4bf215d19bc4b2cc44375865f95c2444e.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-07-06 02:05:29</t>
+    <t>Microsoft.CSharp.RuntimeBinder.Binder.xlf</t>
+  </si>
+  <si>
+    <t>2016-07-06 02:21:33</t>
   </si>
   <si>
     <t>0001-01-01 00:00:00</t>
@@ -127,37 +127,19 @@
     <t>False</t>
   </si>
   <si>
-    <t>Microsoft.CSharp.RuntimeBinder.CSharpArgumentInfo.962fa9536a4b078d9b565d68aabd4695944fee51.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>Microsoft.CSharp.RuntimeBinder.CSharpArgumentInfoFlags.b8a0c3eeb0012f6f3ddf36cffa9e8d962c2ac07c.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>Microsoft.CSharp.RuntimeBinder.CSharpBinderFlags.ef4d630b0e31dfacc4847deef0afc2361714dc42.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>Microsoft.CSharp.RuntimeBinder.RuntimeBinderException.e96ce0b813afb13c48b7e948661a02ca9aeaebe6.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>Microsoft.CSharp.RuntimeBinder.RuntimeBinderInternalCompilerException.5d20fc0b761f7cfd28c3d8ffdba31ad832efcf4b.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>Microsoft.CSharp.RuntimeBinder.Binder.0a71a9e4bf215d19bc4b2cc44375865f95c2444e.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>Microsoft.CSharp.RuntimeBinder.CSharpArgumentInfo.962fa9536a4b078d9b565d68aabd4695944fee51.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>Microsoft.CSharp.RuntimeBinder.CSharpArgumentInfoFlags.b8a0c3eeb0012f6f3ddf36cffa9e8d962c2ac07c.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>Microsoft.CSharp.RuntimeBinder.CSharpBinderFlags.ef4d630b0e31dfacc4847deef0afc2361714dc42.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>Microsoft.CSharp.RuntimeBinder.RuntimeBinderException.e96ce0b813afb13c48b7e948661a02ca9aeaebe6.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>Microsoft.CSharp.RuntimeBinder.RuntimeBinderInternalCompilerException.5d20fc0b761f7cfd28c3d8ffdba31ad832efcf4b.ja-jp.xlf</t>
+    <t>Microsoft.CSharp.RuntimeBinder.CSharpArgumentInfo.xlf</t>
+  </si>
+  <si>
+    <t>Microsoft.CSharp.RuntimeBinder.CSharpArgumentInfoFlags.xlf</t>
+  </si>
+  <si>
+    <t>Microsoft.CSharp.RuntimeBinder.CSharpBinderFlags.xlf</t>
+  </si>
+  <si>
+    <t>Microsoft.CSharp.RuntimeBinder.RuntimeBinderException.xlf</t>
+  </si>
+  <si>
+    <t>Microsoft.CSharp.RuntimeBinder.RuntimeBinderInternalCompilerException.xlf</t>
   </si>
 </sst>
 </file>
@@ -930,7 +912,7 @@
         <v>9</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>11</v>
@@ -977,7 +959,7 @@
         <v>9</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>11</v>
@@ -1024,7 +1006,7 @@
         <v>9</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>11</v>
@@ -1071,7 +1053,7 @@
         <v>9</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>11</v>
@@ -1118,7 +1100,7 @@
         <v>9</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>11</v>
@@ -1165,7 +1147,7 @@
         <v>9</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>11</v>

--- a/ol-handback/OpenLocalizationOrg/coreapi/master/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationOrg/coreapi/master/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>File Name</t>
   </si>
@@ -46,6 +46,9 @@
     <t/>
   </si>
   <si>
+    <t>Handback transform failed</t>
+  </si>
+  <si>
     <t>Ready for handoff</t>
   </si>
   <si>
@@ -127,19 +130,37 @@
     <t>False</t>
   </si>
   <si>
+    <t>Handback file name: Microsoft.CSharp.RuntimeBinder.Binder.0a71a9e4bf215d19bc4b2cc44375865f95c2444e.zh-cn is different with handoff file name: Microsoft.CSharp.RuntimeBinder.Binder.</t>
+  </si>
+  <si>
     <t>Microsoft.CSharp.RuntimeBinder.CSharpArgumentInfo.xlf</t>
   </si>
   <si>
+    <t>Handback file name: Microsoft.CSharp.RuntimeBinder.CSharpArgumentInfo.962fa9536a4b078d9b565d68aabd4695944fee51.zh-cn is different with handoff file name: Microsoft.CSharp.RuntimeBinder.CSharpArgumentInfo.</t>
+  </si>
+  <si>
     <t>Microsoft.CSharp.RuntimeBinder.CSharpArgumentInfoFlags.xlf</t>
   </si>
   <si>
+    <t>Handback file name: Microsoft.CSharp.RuntimeBinder.CSharpArgumentInfoFlags.b8a0c3eeb0012f6f3ddf36cffa9e8d962c2ac07c.zh-cn is different with handoff file name: Microsoft.CSharp.RuntimeBinder.CSharpArgumentInfoFlags.</t>
+  </si>
+  <si>
     <t>Microsoft.CSharp.RuntimeBinder.CSharpBinderFlags.xlf</t>
   </si>
   <si>
+    <t>Handback file name: Microsoft.CSharp.RuntimeBinder.CSharpBinderFlags.ef4d630b0e31dfacc4847deef0afc2361714dc42.zh-cn is different with handoff file name: Microsoft.CSharp.RuntimeBinder.CSharpBinderFlags.</t>
+  </si>
+  <si>
     <t>Microsoft.CSharp.RuntimeBinder.RuntimeBinderException.xlf</t>
   </si>
   <si>
+    <t>Handback file name: Microsoft.CSharp.RuntimeBinder.RuntimeBinderException.e96ce0b813afb13c48b7e948661a02ca9aeaebe6.zh-cn is different with handoff file name: Microsoft.CSharp.RuntimeBinder.RuntimeBinderException.</t>
+  </si>
+  <si>
     <t>Microsoft.CSharp.RuntimeBinder.RuntimeBinderInternalCompilerException.xlf</t>
+  </si>
+  <si>
+    <t>Handback file name: Microsoft.CSharp.RuntimeBinder.RuntimeBinderInternalCompilerException.5d20fc0b761f7cfd28c3d8ffdba31ad832efcf4b.zh-cn is different with handoff file name: Microsoft.CSharp.RuntimeBinder.RuntimeBinderInternalCompilerException.</t>
   </si>
 </sst>
 </file>
@@ -271,7 +292,7 @@
     <col min="2" max="2" width="40" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.9639423915318" customWidth="1"/>
-    <col min="5" max="5" width="17.2159881591797" customWidth="1"/>
+    <col min="5" max="5" width="24.742680140904" customWidth="1"/>
     <col min="6" max="6" width="17.2159881591797" customWidth="1"/>
     <col min="7" max="7" width="21.2031533377511" customWidth="1"/>
   </cols>
@@ -316,18 +337,18 @@
         <v>10</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>8</v>
@@ -339,18 +360,18 @@
         <v>10</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>8</v>
@@ -362,18 +383,18 @@
         <v>10</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>8</v>
@@ -385,18 +406,18 @@
         <v>10</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>8</v>
@@ -408,18 +429,18 @@
         <v>10</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>8</v>
@@ -431,10 +452,10 @@
         <v>10</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -463,7 +484,7 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369144984654" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="24.742680140904" customWidth="1"/>
     <col min="4" max="4" width="14.1573017665318" customWidth="1"/>
     <col min="5" max="5" width="10.1100556509835" customWidth="1"/>
     <col min="6" max="6" width="40" customWidth="1"/>
@@ -475,54 +496,54 @@
     <col min="12" max="12" width="16.6648352486747" customWidth="1"/>
     <col min="13" max="13" width="19.7299390520368" customWidth="1"/>
     <col min="14" max="14" width="15.8504747663225" customWidth="1"/>
-    <col min="15" max="15" width="13.7470528738839" customWidth="1"/>
+    <col min="15" max="15" width="40" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2">
@@ -542,10 +563,10 @@
         <v>9</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H2" s="0" t="s">
         <v>9</v>
@@ -554,27 +575,27 @@
         <v>9</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K2" s="0" t="s">
         <v>9</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M2" s="0" t="s">
         <v>9</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>8</v>
@@ -589,39 +610,39 @@
         <v>9</v>
       </c>
       <c r="F3" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="N3" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="I3" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="K3" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="L3" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="M3" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="N3" s="0" t="s">
-        <v>36</v>
-      </c>
       <c r="O3" s="0" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>8</v>
@@ -636,10 +657,10 @@
         <v>9</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H4" s="0" t="s">
         <v>9</v>
@@ -648,27 +669,27 @@
         <v>9</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K4" s="0" t="s">
         <v>9</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M4" s="0" t="s">
         <v>9</v>
       </c>
       <c r="N4" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>8</v>
@@ -683,10 +704,10 @@
         <v>9</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H5" s="0" t="s">
         <v>9</v>
@@ -695,27 +716,27 @@
         <v>9</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K5" s="0" t="s">
         <v>9</v>
       </c>
       <c r="L5" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M5" s="0" t="s">
         <v>9</v>
       </c>
       <c r="N5" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>8</v>
@@ -730,10 +751,10 @@
         <v>9</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H6" s="0" t="s">
         <v>9</v>
@@ -742,27 +763,27 @@
         <v>9</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K6" s="0" t="s">
         <v>9</v>
       </c>
       <c r="L6" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M6" s="0" t="s">
         <v>9</v>
       </c>
       <c r="N6" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>8</v>
@@ -777,10 +798,10 @@
         <v>9</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H7" s="0" t="s">
         <v>9</v>
@@ -789,22 +810,22 @@
         <v>9</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K7" s="0" t="s">
         <v>9</v>
       </c>
       <c r="L7" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M7" s="0" t="s">
         <v>9</v>
       </c>
       <c r="N7" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O7" s="0" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -850,49 +871,49 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2">
@@ -903,7 +924,7 @@
         <v>8</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
         <v>9</v>
@@ -912,10 +933,10 @@
         <v>9</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H2" s="0" t="s">
         <v>9</v>
@@ -924,19 +945,19 @@
         <v>9</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K2" s="0" t="s">
         <v>9</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M2" s="0" t="s">
         <v>9</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O2" s="0" t="s">
         <v>9</v>
@@ -944,46 +965,46 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="0" t="s">
+      <c r="H3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="N3" s="0" t="s">
         <v>37</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="I3" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="K3" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="L3" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="M3" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="N3" s="0" t="s">
-        <v>36</v>
       </c>
       <c r="O3" s="0" t="s">
         <v>9</v>
@@ -991,13 +1012,13 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D4" s="0" t="s">
         <v>9</v>
@@ -1006,10 +1027,10 @@
         <v>9</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H4" s="0" t="s">
         <v>9</v>
@@ -1018,19 +1039,19 @@
         <v>9</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K4" s="0" t="s">
         <v>9</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M4" s="0" t="s">
         <v>9</v>
       </c>
       <c r="N4" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O4" s="0" t="s">
         <v>9</v>
@@ -1038,13 +1059,13 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D5" s="0" t="s">
         <v>9</v>
@@ -1053,10 +1074,10 @@
         <v>9</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H5" s="0" t="s">
         <v>9</v>
@@ -1065,19 +1086,19 @@
         <v>9</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K5" s="0" t="s">
         <v>9</v>
       </c>
       <c r="L5" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M5" s="0" t="s">
         <v>9</v>
       </c>
       <c r="N5" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O5" s="0" t="s">
         <v>9</v>
@@ -1085,13 +1106,13 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D6" s="0" t="s">
         <v>9</v>
@@ -1100,10 +1121,10 @@
         <v>9</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H6" s="0" t="s">
         <v>9</v>
@@ -1112,19 +1133,19 @@
         <v>9</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K6" s="0" t="s">
         <v>9</v>
       </c>
       <c r="L6" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M6" s="0" t="s">
         <v>9</v>
       </c>
       <c r="N6" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O6" s="0" t="s">
         <v>9</v>
@@ -1132,13 +1153,13 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D7" s="0" t="s">
         <v>9</v>
@@ -1147,10 +1168,10 @@
         <v>9</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H7" s="0" t="s">
         <v>9</v>
@@ -1159,19 +1180,19 @@
         <v>9</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K7" s="0" t="s">
         <v>9</v>
       </c>
       <c r="L7" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M7" s="0" t="s">
         <v>9</v>
       </c>
       <c r="N7" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O7" s="0" t="s">
         <v>9</v>

--- a/ol-handback/OpenLocalizationOrg/coreapi/master/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationOrg/coreapi/master/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>File Name</t>
   </si>
@@ -46,7 +46,7 @@
     <t/>
   </si>
   <si>
-    <t>Handback transform failed</t>
+    <t>Handed back: in sync with en-US</t>
   </si>
   <si>
     <t>Ready for handoff</t>
@@ -121,46 +121,49 @@
     <t>2016-07-06 02:21:33</t>
   </si>
   <si>
+    <t>Microsoft.CSharp.RuntimeBinder.Binder.0a71a9e4bf215d19bc4b2cc44375865f95c2444e.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-07-06 03:28:49</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
+    <t>False</t>
+  </si>
+  <si>
+    <t>Microsoft.CSharp.RuntimeBinder.CSharpArgumentInfo.xlf</t>
+  </si>
+  <si>
+    <t>Microsoft.CSharp.RuntimeBinder.CSharpArgumentInfo.962fa9536a4b078d9b565d68aabd4695944fee51.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>Microsoft.CSharp.RuntimeBinder.CSharpArgumentInfoFlags.xlf</t>
+  </si>
+  <si>
+    <t>Microsoft.CSharp.RuntimeBinder.CSharpArgumentInfoFlags.b8a0c3eeb0012f6f3ddf36cffa9e8d962c2ac07c.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>Microsoft.CSharp.RuntimeBinder.CSharpBinderFlags.xlf</t>
+  </si>
+  <si>
+    <t>Microsoft.CSharp.RuntimeBinder.CSharpBinderFlags.ef4d630b0e31dfacc4847deef0afc2361714dc42.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>Microsoft.CSharp.RuntimeBinder.RuntimeBinderException.xlf</t>
+  </si>
+  <si>
+    <t>Microsoft.CSharp.RuntimeBinder.RuntimeBinderException.e96ce0b813afb13c48b7e948661a02ca9aeaebe6.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>Microsoft.CSharp.RuntimeBinder.RuntimeBinderInternalCompilerException.xlf</t>
+  </si>
+  <si>
+    <t>Microsoft.CSharp.RuntimeBinder.RuntimeBinderInternalCompilerException.5d20fc0b761f7cfd28c3d8ffdba31ad832efcf4b.zh-cn.xlf</t>
+  </si>
+  <si>
     <t>0001-01-01 00:00:00</t>
-  </si>
-  <si>
-    <t>True</t>
-  </si>
-  <si>
-    <t>False</t>
-  </si>
-  <si>
-    <t>Handback file name: Microsoft.CSharp.RuntimeBinder.Binder.0a71a9e4bf215d19bc4b2cc44375865f95c2444e.zh-cn is different with handoff file name: Microsoft.CSharp.RuntimeBinder.Binder.</t>
-  </si>
-  <si>
-    <t>Microsoft.CSharp.RuntimeBinder.CSharpArgumentInfo.xlf</t>
-  </si>
-  <si>
-    <t>Handback file name: Microsoft.CSharp.RuntimeBinder.CSharpArgumentInfo.962fa9536a4b078d9b565d68aabd4695944fee51.zh-cn is different with handoff file name: Microsoft.CSharp.RuntimeBinder.CSharpArgumentInfo.</t>
-  </si>
-  <si>
-    <t>Microsoft.CSharp.RuntimeBinder.CSharpArgumentInfoFlags.xlf</t>
-  </si>
-  <si>
-    <t>Handback file name: Microsoft.CSharp.RuntimeBinder.CSharpArgumentInfoFlags.b8a0c3eeb0012f6f3ddf36cffa9e8d962c2ac07c.zh-cn is different with handoff file name: Microsoft.CSharp.RuntimeBinder.CSharpArgumentInfoFlags.</t>
-  </si>
-  <si>
-    <t>Microsoft.CSharp.RuntimeBinder.CSharpBinderFlags.xlf</t>
-  </si>
-  <si>
-    <t>Handback file name: Microsoft.CSharp.RuntimeBinder.CSharpBinderFlags.ef4d630b0e31dfacc4847deef0afc2361714dc42.zh-cn is different with handoff file name: Microsoft.CSharp.RuntimeBinder.CSharpBinderFlags.</t>
-  </si>
-  <si>
-    <t>Microsoft.CSharp.RuntimeBinder.RuntimeBinderException.xlf</t>
-  </si>
-  <si>
-    <t>Handback file name: Microsoft.CSharp.RuntimeBinder.RuntimeBinderException.e96ce0b813afb13c48b7e948661a02ca9aeaebe6.zh-cn is different with handoff file name: Microsoft.CSharp.RuntimeBinder.RuntimeBinderException.</t>
-  </si>
-  <si>
-    <t>Microsoft.CSharp.RuntimeBinder.RuntimeBinderInternalCompilerException.xlf</t>
-  </si>
-  <si>
-    <t>Handback file name: Microsoft.CSharp.RuntimeBinder.RuntimeBinderInternalCompilerException.5d20fc0b761f7cfd28c3d8ffdba31ad832efcf4b.zh-cn is different with handoff file name: Microsoft.CSharp.RuntimeBinder.RuntimeBinderInternalCompilerException.</t>
   </si>
 </sst>
 </file>
@@ -292,7 +295,7 @@
     <col min="2" max="2" width="40" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.9639423915318" customWidth="1"/>
-    <col min="5" max="5" width="24.742680140904" customWidth="1"/>
+    <col min="5" max="5" width="29.9777047293527" customWidth="1"/>
     <col min="6" max="6" width="17.2159881591797" customWidth="1"/>
     <col min="7" max="7" width="21.2031533377511" customWidth="1"/>
   </cols>
@@ -484,19 +487,19 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369144984654" customWidth="1"/>
-    <col min="3" max="3" width="24.742680140904" customWidth="1"/>
+    <col min="3" max="3" width="29.9777047293527" customWidth="1"/>
     <col min="4" max="4" width="14.1573017665318" customWidth="1"/>
     <col min="5" max="5" width="10.1100556509835" customWidth="1"/>
     <col min="6" max="6" width="40" customWidth="1"/>
     <col min="7" max="7" width="25.2197069440569" customWidth="1"/>
-    <col min="8" max="8" width="18.6506053379604" customWidth="1"/>
-    <col min="9" max="9" width="21.7054770333426" customWidth="1"/>
+    <col min="8" max="8" width="40" customWidth="1"/>
+    <col min="9" max="9" width="40" customWidth="1"/>
     <col min="10" max="10" width="27.1533006940569" customWidth="1"/>
     <col min="11" max="11" width="19.298205784389" customWidth="1"/>
     <col min="12" max="12" width="16.6648352486747" customWidth="1"/>
     <col min="13" max="13" width="19.7299390520368" customWidth="1"/>
     <col min="14" max="14" width="15.8504747663225" customWidth="1"/>
-    <col min="15" max="15" width="40" customWidth="1"/>
+    <col min="15" max="15" width="13.7470528738839" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -568,29 +571,29 @@
       <c r="G2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="H2" s="0" t="s">
-        <v>9</v>
+      <c r="H2" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K2" s="0" t="s">
         <v>9</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M2" s="0" t="s">
         <v>9</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -615,29 +618,29 @@
       <c r="G3" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="H3" s="0" t="s">
-        <v>9</v>
+      <c r="H3" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K3" s="0" t="s">
         <v>9</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M3" s="0" t="s">
         <v>9</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -662,29 +665,29 @@
       <c r="G4" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="H4" s="0" t="s">
-        <v>9</v>
+      <c r="H4" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K4" s="0" t="s">
         <v>9</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M4" s="0" t="s">
         <v>9</v>
       </c>
       <c r="N4" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -709,29 +712,29 @@
       <c r="G5" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="H5" s="0" t="s">
-        <v>9</v>
+      <c r="H5" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K5" s="0" t="s">
         <v>9</v>
       </c>
       <c r="L5" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M5" s="0" t="s">
         <v>9</v>
       </c>
       <c r="N5" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -756,29 +759,29 @@
       <c r="G6" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="H6" s="0" t="s">
-        <v>9</v>
+      <c r="H6" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K6" s="0" t="s">
         <v>9</v>
       </c>
       <c r="L6" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M6" s="0" t="s">
         <v>9</v>
       </c>
       <c r="N6" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>46</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -803,39 +806,45 @@
       <c r="G7" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="H7" s="0" t="s">
-        <v>9</v>
+      <c r="H7" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K7" s="0" t="s">
         <v>9</v>
       </c>
       <c r="L7" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M7" s="0" t="s">
         <v>9</v>
       </c>
       <c r="N7" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O7" s="0" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="Microsoft.CSharp.RuntimeBinder.Binder.yml" r:id="rId2"/>
-    <hyperlink ref="A3" display="Microsoft.CSharp.RuntimeBinder.CSharpArgumentInfo.yml" r:id="rId3"/>
-    <hyperlink ref="A4" display="Microsoft.CSharp.RuntimeBinder.CSharpArgumentInfoFlags.yml" r:id="rId4"/>
-    <hyperlink ref="A5" display="Microsoft.CSharp.RuntimeBinder.CSharpBinderFlags.yml" r:id="rId5"/>
-    <hyperlink ref="A6" display="Microsoft.CSharp.RuntimeBinder.RuntimeBinderException.yml" r:id="rId6"/>
-    <hyperlink ref="A7" display="Microsoft.CSharp.RuntimeBinder.RuntimeBinderInternalCompilerException.yml" r:id="rId7"/>
+    <hyperlink ref="H2" display="Microsoft.CSharp.RuntimeBinder.Binder.yml" r:id="rId3"/>
+    <hyperlink ref="A3" display="Microsoft.CSharp.RuntimeBinder.CSharpArgumentInfo.yml" r:id="rId4"/>
+    <hyperlink ref="H3" display="Microsoft.CSharp.RuntimeBinder.CSharpArgumentInfo.yml" r:id="rId5"/>
+    <hyperlink ref="A4" display="Microsoft.CSharp.RuntimeBinder.CSharpArgumentInfoFlags.yml" r:id="rId6"/>
+    <hyperlink ref="H4" display="Microsoft.CSharp.RuntimeBinder.CSharpArgumentInfoFlags.yml" r:id="rId7"/>
+    <hyperlink ref="A5" display="Microsoft.CSharp.RuntimeBinder.CSharpBinderFlags.yml" r:id="rId8"/>
+    <hyperlink ref="H5" display="Microsoft.CSharp.RuntimeBinder.CSharpBinderFlags.yml" r:id="rId9"/>
+    <hyperlink ref="A6" display="Microsoft.CSharp.RuntimeBinder.RuntimeBinderException.yml" r:id="rId10"/>
+    <hyperlink ref="H6" display="Microsoft.CSharp.RuntimeBinder.RuntimeBinderException.yml" r:id="rId11"/>
+    <hyperlink ref="A7" display="Microsoft.CSharp.RuntimeBinder.RuntimeBinderInternalCompilerException.yml" r:id="rId12"/>
+    <hyperlink ref="H7" display="Microsoft.CSharp.RuntimeBinder.RuntimeBinderInternalCompilerException.yml" r:id="rId13"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -945,19 +954,19 @@
         <v>9</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="K2" s="0" t="s">
         <v>9</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M2" s="0" t="s">
         <v>9</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O2" s="0" t="s">
         <v>9</v>
@@ -992,19 +1001,19 @@
         <v>9</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="K3" s="0" t="s">
         <v>9</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M3" s="0" t="s">
         <v>9</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O3" s="0" t="s">
         <v>9</v>
@@ -1039,19 +1048,19 @@
         <v>9</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="K4" s="0" t="s">
         <v>9</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M4" s="0" t="s">
         <v>9</v>
       </c>
       <c r="N4" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O4" s="0" t="s">
         <v>9</v>
@@ -1086,19 +1095,19 @@
         <v>9</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="K5" s="0" t="s">
         <v>9</v>
       </c>
       <c r="L5" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M5" s="0" t="s">
         <v>9</v>
       </c>
       <c r="N5" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O5" s="0" t="s">
         <v>9</v>
@@ -1133,19 +1142,19 @@
         <v>9</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="K6" s="0" t="s">
         <v>9</v>
       </c>
       <c r="L6" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M6" s="0" t="s">
         <v>9</v>
       </c>
       <c r="N6" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O6" s="0" t="s">
         <v>9</v>
@@ -1180,19 +1189,19 @@
         <v>9</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="K7" s="0" t="s">
         <v>9</v>
       </c>
       <c r="L7" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M7" s="0" t="s">
         <v>9</v>
       </c>
       <c r="N7" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O7" s="0" t="s">
         <v>9</v>
